--- a/Test_Design_Technicque_NguyenDuyToan.xlsx
+++ b/Test_Design_Technicque_NguyenDuyToan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Common Checklist</t>
   </si>
@@ -97,225 +97,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>- Case 1: CONTROL.ENABLE_CCY = 'NO'
-- Case 2: CONTROL.ENABLE_CCY = 'YES'</t>
-  </si>
-  <si>
-    <t>6. Default rates to local currency</t>
-  </si>
-  <si>
-    <t>7. Add currency maintenance to cell details dialog</t>
-  </si>
-  <si>
-    <t>CONTROL.ENABLE_CCY = 'YES'</t>
-  </si>
-  <si>
-    <t>8. Cell fees to show money values at currency the user is working with</t>
-  </si>
-  <si>
-    <t>Verify the Total title will be shown the currency code that user is working when the control setting 'Enable Multiple Currencies' is checked on</t>
-  </si>
-  <si>
-    <t>1. Open a schedule
-2. Select a medium outline and get data of it
-3. Open Cell Fee Details dialog of any cell
-4. Observe the title of Total column</t>
-  </si>
-  <si>
-    <t>- Case 1: The Total column title should be "Total"
-- Case 2: The Total column title should be "&lt;&lt;Currency code&gt;&gt; Total"</t>
-  </si>
-  <si>
-    <t>Verify that value of all fields (exclude Spot Monitoring) will be calculated in working currency</t>
-  </si>
-  <si>
-    <t>1. Open a schedule
-2. Select a medium outline and get data of it
-3. Open Cell Fee Details dialog of any cell
-4. Observe the value of all fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The following fields should be calculated in working currency and don’t need a currency conversion: Base cost, Gross cost, Commission Rebate, Service Fee, Production Fee, Agency Cost, Pay GST,…
-</t>
-  </si>
-  <si>
-    <t>Verify the Spot Monitoring, Media Levy fields will be invisible in Adept site</t>
-  </si>
-  <si>
-    <t>1. Open a schedule
-2. Select a medium outline and get data of it
-3. Open Cell Fee Details dialog of any cell
-4. Observe the Spot Monitoring, Media Levy fields</t>
-  </si>
-  <si>
-    <t>The Spot Monitoring, Media Levy fields should be invisible in Adept site</t>
-  </si>
-  <si>
-    <t>9. Copy and paste line/cell</t>
-  </si>
-  <si>
-    <t>Verify the pasted rates will not be converted but will be deemed to be in the paste area currency and warning message will be shown if the lines copied/pasted are different currency</t>
-  </si>
-  <si>
-    <t>1. Open a schedule
-2. Select a medium outline and get its data
-3. Select some schedule lines and copy them
-4. Select other medium outline which is matched with each case in test data column
-5. Paste the copied lines with Rates</t>
-  </si>
-  <si>
-    <t>- Case 1: The copied lines are pasted without warning message
-- Case 2:  The copied lines are pasted without warning message
-- Case 3: The warning message "Currency Exchange Rates will not be copied" should show. The pasted rates should not be converted but should be deemed to be in the paste area currency</t>
-  </si>
-  <si>
-    <t>- Case 1: CONTROL.ENABLE_CCY = 'NO'
-- Case 2: CONTROL.ENABLE_CCY = 'YES' &amp; copy/paste to the same currency
-- Case 3: CONTROL.ENABLE_CCY = 'YES' &amp; copy/paste to the different currency</t>
-  </si>
-  <si>
-    <t>Verify the billing currency is not copied but always defaults according to the normal rules for adding a line and will show the warning message when if the lines copied/pasted are different billing currency</t>
-  </si>
-  <si>
-    <t>- Case 1: The copied lines are pasted without warning message
-- Case 2:  The copied lines are pasted without warning message
-- Case 3: The warning message "The default billing currency (&lt;&lt;billing ccy code&gt;&gt;) will be used on the line pasted which is different to the copied billing currency (&lt;&lt;copied billing ccy code&gt;&gt;)." should show. The pasted lines should be default according to the normal rules for adding a line</t>
-  </si>
-  <si>
-    <t>- Case 1: CONTROL.ENABLE_CCY = 'NO'
-- Case 2: CONTROL.ENABLE_CCY = 'YES' &amp; copy/paste to the same billing currency
-- Case 3: CONTROL.ENABLE_CCY = 'YES' &amp; copy/paste to the different billing currency</t>
-  </si>
-  <si>
-    <t>Regression test to make sure the Copy/Paste function works properly when copy/paste on different media type, different schedule</t>
-  </si>
-  <si>
-    <t>- Case 1: User cannot paste the copied lines into the different media type
-- Case 2: The copied lines should be pasted properly with copy/paste rules</t>
-  </si>
-  <si>
-    <t>CONTROL.ENABLE_CCY = 'YES'
-- Case 1: Copy/paste to the different media type
-- Case 2: Copy/paste to the different schedule but the same media type</t>
-  </si>
-  <si>
-    <t>10. Import non-broadcast rate currency conversion</t>
-  </si>
-  <si>
-    <t>Verify the system will add set of media type/market and currency into schedule if the rate currency in import file is not local currency and it's active</t>
-  </si>
-  <si>
-    <t>1. Use xml file to import non broadcast schedule
-2. Observe the result</t>
-  </si>
-  <si>
-    <t>- Case 1: The system should add set of type/market into schedule
-- Case 2: The system should add set of type/market and currency into schedule
-- Case 3: The system should add the cells normally
-- Case 4: The system should convert the rate currency to local currency</t>
-  </si>
-  <si>
-    <t>CONTROL.ENABLE_CCY = 'YES'
-- Rate currency in import file is active
-+ Case 1: CONTROL.ENABLE_CCY = 'YES' and Rate currency in import file is local currency
-+ Case 2: CONTROL.ENABLE_CCY = 'YES' and Rate currency in import file is not local currency
-+ Case 3: CONTROL.ENABLE_CCY = 'NO' and Rate currency in import file is local currency
-+ Case 4: CONTROL.ENABLE_CCY = 'NO' and Rate currency in import file is not local currency</t>
-  </si>
-  <si>
-    <t>Verify the error message will be displayed if the rate currency is inactive or not existed</t>
-  </si>
-  <si>
-    <t>The system should show error message</t>
-  </si>
-  <si>
-    <t>CONTROL.ENABLE_CCY = 'YES'
-+ Case 1: Rate currency in import file is inactive
-+ Case 2: Rate currency in import file is not existed</t>
-  </si>
-  <si>
-    <t>11. Support multiple currency for view summary dialog</t>
-  </si>
-  <si>
-    <t>Verify the UI of Summary dialog when the control setting 'Enable Multiple Currencies' is checked on/off</t>
-  </si>
-  <si>
-    <t>1. Open a schedule
-2. Select a medium outline and get data of it
-3. Open the Summary dialog
-4. Observe the UI if this dialog</t>
-  </si>
-  <si>
-    <t>- Case 1: The UI of Summary dialog should keep existing UI
-- Case 2: Should add a toggle button 'Bill Ccy' into dialog, place it next to the 'Selected days/weeks' button. The button label switches between 'Bill Ccy' and 'Rate Ccy'</t>
-  </si>
-  <si>
-    <t>Verify the 'Bill Ccy' button will be enable when there is only one billing currency is used</t>
-  </si>
-  <si>
-    <t>1. Open a schedule
-2. Select a medium outline and get data of it
-3. Open the Summary dialog
-4. Click on the 'Bill Ccy' button to turn on/off it
-5. Observe the toggle button and all money values</t>
-  </si>
-  <si>
-    <t>The button should be enable
-- Case 1: Button label should be 'Bill Ccy' and all money value on the dialog (i.e. Spend, Nominal, Bonus, Total, Total Ex GST) should display in the billing currency
-- Case 2: Button label should be 'Rate Ccy' and all money values should display in rate currency is working</t>
-  </si>
-  <si>
-    <t>- CONTROL.ENABLE_CCY = 'YES'
-- There is one billing currency is used
-+ Case 1: 'Bill Ccy' button is on
-+ Case 2: 'Bill Ccy' button is off</t>
-  </si>
-  <si>
-    <t>Verify the 'Bill Ccy' button will be disable when there are many billing currencies are used</t>
-  </si>
-  <si>
-    <t>1. Open a schedule
-2. Select a medium outline and get data of it
-3. Open the Summary dialog
-4. Observe the 'Bill Ccy' button all all money values</t>
-  </si>
-  <si>
-    <t>The button should be disable, the label should be 'Rate Ccy' and all money values should be display in rate currency is working</t>
-  </si>
-  <si>
-    <t>- CONTROL.ENABLE_CCY = 'YES'
-- There are many billing currencies are used</t>
-  </si>
-  <si>
-    <t>Verify the right currency code will be displayed next to title of all money values when converting between rate currency and billing currency</t>
-  </si>
-  <si>
-    <t>1. Open a schedule
-2. Select a medium outline and get data of it
-3. Open the Summary dialog
-4. Click on the 'Bill Ccy' button to turn on/off it
-5. Observe the currency code in title of all money values</t>
-  </si>
-  <si>
-    <t>The right currency code should be displayed next to title of all money values. The currency code should be changed to match with currency when viewing</t>
-  </si>
-  <si>
-    <t>- CONTROL.ENABLE_CCY = 'YES'</t>
-  </si>
-  <si>
-    <t>Verify the Rating columns data will not impact when converting between rate currency and billing currency</t>
-  </si>
-  <si>
-    <t>1. Open a schedule
-2. Select a medium outline and get data of it
-3. Open the Summary dialog
-4. Click on the 'Bill Ccy' button to turn on/off it
-5. Observe the Rating columns data (i.e. CPT/CPM, TARP)</t>
-  </si>
-  <si>
-    <t>The Rating columns data should be still calculated based on rate currency, regardless selected currency</t>
   </si>
   <si>
     <t>1. View product function - Display Original Price</t>
@@ -801,6 +582,40 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -815,40 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,7 +849,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1083,10 +864,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1111,13 +892,13 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1143,9 +924,9 @@
     <row r="3" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1172,7 +953,7 @@
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="52"/>
@@ -1206,8 +987,8 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>106</v>
+      <c r="B5" s="57" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="53"/>
@@ -1240,7 +1021,7 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="52"/>
@@ -1272,8 +1053,8 @@
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>94</v>
+      <c r="B7" s="55" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="53"/>
@@ -1377,15 +1158,15 @@
       </c>
       <c r="B10" s="14">
         <f t="shared" ref="B10:D10" si="1">SUM(B11:B14)</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1416,15 +1197,15 @@
       </c>
       <c r="B11" s="15">
         <f>COUNTIF($F$18:$F$49631,"*Passed")</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C11" s="15">
         <f>COUNTIF($G$18:$G$49631,"*Passed")</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D11" s="15">
         <f>COUNTIF($H$18:$H$49631,"*Passed")</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1455,11 +1236,11 @@
       </c>
       <c r="B12" s="15">
         <f>COUNTIF($F$18:$F$49351,"*Failed*")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C12" s="15">
         <f>COUNTIF($G$18:$G$49351,"*Failed*")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="15">
         <f>COUNTIF($H$18:$H$49351,"*Failed*")</f>
@@ -1580,7 +1361,7 @@
       </c>
       <c r="D15" s="15">
         <f>COUNTIF($H$18:$H$49351,"*Passed in previous build*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1611,11 +1392,11 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="20"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -1683,8 +1464,8 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="60" t="s">
-        <v>78</v>
+      <c r="B18" s="54" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="53"/>
@@ -1715,21 +1496,15 @@
       <c r="A19" s="26">
         <v>1</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>79</v>
+      <c r="B19" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>16</v>
-      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="28"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -1755,20 +1530,14 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="28"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -1794,20 +1563,14 @@
         <v>3</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="28"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -1833,20 +1596,14 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
@@ -1872,20 +1629,14 @@
         <v>5</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
@@ -1907,8 +1658,8 @@
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
-      <c r="B24" s="60" t="s">
-        <v>83</v>
+      <c r="B24" s="54" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="53"/>
@@ -1941,20 +1692,14 @@
         <v>6</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="37"/>
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
@@ -1980,20 +1725,14 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="37"/>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
@@ -2019,20 +1758,14 @@
         <v>8</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="37"/>
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
@@ -2058,20 +1791,14 @@
         <v>9</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="37"/>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
@@ -2097,20 +1824,14 @@
         <v>10</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="37"/>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
@@ -2136,7 +1857,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -2168,11 +1889,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
-      <c r="B31" s="62" t="s">
-        <v>91</v>
+      <c r="B31" s="45" t="s">
+        <v>39</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -2201,11 +1922,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
-      <c r="B32" s="62" t="s">
-        <v>92</v>
+      <c r="B32" s="45" t="s">
+        <v>40</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -2231,8 +1952,8 @@
     </row>
     <row r="33" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
-      <c r="B33" s="55" t="s">
-        <v>93</v>
+      <c r="B33" s="51" t="s">
+        <v>41</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="53"/>
@@ -2265,20 +1986,14 @@
         <v>14</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="38"/>
       <c r="E34" s="39"/>
-      <c r="F34" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="37"/>
       <c r="J34" s="32"/>
       <c r="K34" s="32"/>
@@ -2304,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="38"/>
@@ -2337,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="38"/>
@@ -2370,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="38"/>
@@ -2403,7 +2118,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="38"/>
@@ -2432,8 +2147,8 @@
     </row>
     <row r="39" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
-      <c r="B39" s="55" t="s">
-        <v>100</v>
+      <c r="B39" s="51" t="s">
+        <v>48</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="53"/>
@@ -2466,20 +2181,14 @@
         <v>19</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="38"/>
       <c r="E40" s="39"/>
-      <c r="F40" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
       <c r="I40" s="40"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
@@ -2505,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="38"/>
@@ -2538,20 +2247,14 @@
         <v>21</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
-      <c r="F42" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="37"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
@@ -2573,8 +2276,8 @@
     </row>
     <row r="43" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
-      <c r="B43" s="55" t="s">
-        <v>104</v>
+      <c r="B43" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="C43" s="52"/>
       <c r="D43" s="53"/>
@@ -2607,20 +2310,14 @@
         <v>22</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="38"/>
       <c r="E44" s="39"/>
-      <c r="F44" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="37"/>
       <c r="J44" s="32"/>
       <c r="K44" s="32"/>
@@ -2646,20 +2343,14 @@
         <v>23</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="39"/>
       <c r="E45" s="39"/>
-      <c r="F45" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="37"/>
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
@@ -2685,20 +2376,14 @@
         <v>24</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
-      <c r="F46" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
       <c r="I46" s="37"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
@@ -2720,9 +2405,7 @@
     </row>
     <row r="47" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
-      <c r="B47" s="55" t="s">
-        <v>27</v>
-      </c>
+      <c r="B47" s="51"/>
       <c r="C47" s="52"/>
       <c r="D47" s="53"/>
       <c r="E47" s="35"/>
@@ -2757,15 +2440,9 @@
       <c r="C48" s="26"/>
       <c r="D48" s="38"/>
       <c r="E48" s="39"/>
-      <c r="F48" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="37"/>
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
@@ -2794,15 +2471,9 @@
       <c r="C49" s="26"/>
       <c r="D49" s="39"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="37"/>
       <c r="J49" s="32"/>
       <c r="K49" s="32"/>
@@ -2831,15 +2502,9 @@
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="39"/>
-      <c r="F50" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="37"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
@@ -2861,9 +2526,7 @@
     </row>
     <row r="51" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34"/>
-      <c r="B51" s="55" t="s">
-        <v>28</v>
-      </c>
+      <c r="B51" s="51"/>
       <c r="C51" s="52"/>
       <c r="D51" s="53"/>
       <c r="E51" s="35"/>
@@ -2898,15 +2561,9 @@
       <c r="C52" s="26"/>
       <c r="D52" s="38"/>
       <c r="E52" s="39"/>
-      <c r="F52" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="37"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32"/>
@@ -2935,15 +2592,9 @@
       <c r="C53" s="26"/>
       <c r="D53" s="39"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="37"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
@@ -2972,15 +2623,9 @@
       <c r="C54" s="26"/>
       <c r="D54" s="39"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="37"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
@@ -3009,15 +2654,9 @@
       <c r="C55" s="26"/>
       <c r="D55" s="39"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="37"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
@@ -3046,15 +2685,9 @@
       <c r="C56" s="26"/>
       <c r="D56" s="39"/>
       <c r="E56" s="39"/>
-      <c r="F56" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="37"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32"/>
@@ -3083,15 +2716,9 @@
       <c r="C57" s="26"/>
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
-      <c r="F57" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="37"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32"/>
@@ -3120,15 +2747,9 @@
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="39"/>
-      <c r="F58" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="37"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
@@ -3157,15 +2778,9 @@
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="39"/>
-      <c r="F59" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="37"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
@@ -3194,15 +2809,9 @@
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="39"/>
-      <c r="F60" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
       <c r="I60" s="37"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -3231,15 +2840,9 @@
       <c r="C61" s="26"/>
       <c r="D61" s="39"/>
       <c r="E61" s="26"/>
-      <c r="F61" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="37"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
@@ -3268,15 +2871,9 @@
       <c r="C62" s="26"/>
       <c r="D62" s="39"/>
       <c r="E62" s="26"/>
-      <c r="F62" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
       <c r="I62" s="37"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
@@ -3298,9 +2895,7 @@
     </row>
     <row r="63" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="34"/>
-      <c r="B63" s="55" t="s">
-        <v>30</v>
-      </c>
+      <c r="B63" s="51"/>
       <c r="C63" s="52"/>
       <c r="D63" s="53"/>
       <c r="E63" s="35"/>
@@ -3331,27 +2926,13 @@
         <f t="shared" ref="A64:A66" ca="1" si="8">IF(OFFSET(A64,-1,0) ="",OFFSET(A64,-2,0)+1,OFFSET(A64,-1,0)+1 )</f>
         <v>39</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
       <c r="I64" s="37"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
@@ -3376,27 +2957,13 @@
         <f t="shared" ca="1" si="8"/>
         <v>40</v>
       </c>
-      <c r="B65" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
       <c r="I65" s="37"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
@@ -3421,27 +2988,13 @@
         <f t="shared" ca="1" si="8"/>
         <v>41</v>
       </c>
-      <c r="B66" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
       <c r="I66" s="37"/>
       <c r="J66" s="32"/>
       <c r="K66" s="32"/>
@@ -3463,9 +3016,7 @@
     </row>
     <row r="67" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34"/>
-      <c r="B67" s="55" t="s">
-        <v>40</v>
-      </c>
+      <c r="B67" s="51"/>
       <c r="C67" s="52"/>
       <c r="D67" s="53"/>
       <c r="E67" s="35"/>
@@ -3496,27 +3047,13 @@
         <f t="shared" ref="A68:A70" ca="1" si="9">IF(OFFSET(A68,-1,0) ="",OFFSET(A68,-2,0)+1,OFFSET(A68,-1,0)+1 )</f>
         <v>42</v>
       </c>
-      <c r="B68" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
       <c r="I68" s="37"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
@@ -3541,27 +3078,13 @@
         <f t="shared" ca="1" si="9"/>
         <v>43</v>
       </c>
-      <c r="B69" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="37"/>
       <c r="J69" s="32"/>
       <c r="K69" s="32"/>
@@ -3586,27 +3109,13 @@
         <f t="shared" ca="1" si="9"/>
         <v>44</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
       <c r="I70" s="37"/>
       <c r="J70" s="32"/>
       <c r="K70" s="32"/>
@@ -3628,9 +3137,7 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="34"/>
-      <c r="B71" s="55" t="s">
-        <v>51</v>
-      </c>
+      <c r="B71" s="51"/>
       <c r="C71" s="52"/>
       <c r="D71" s="53"/>
       <c r="E71" s="35"/>
@@ -3661,27 +3168,13 @@
         <f t="shared" ref="A72:A73" ca="1" si="10">IF(OFFSET(A72,-1,0) ="",OFFSET(A72,-2,0)+1,OFFSET(A72,-1,0)+1 )</f>
         <v>45</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D72" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="37"/>
       <c r="J72" s="32"/>
       <c r="K72" s="32"/>
@@ -3706,27 +3199,13 @@
         <f t="shared" ca="1" si="10"/>
         <v>46</v>
       </c>
-      <c r="B73" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
       <c r="I73" s="37"/>
       <c r="J73" s="32"/>
       <c r="K73" s="32"/>
@@ -3748,9 +3227,7 @@
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="34"/>
-      <c r="B74" s="55" t="s">
-        <v>59</v>
-      </c>
+      <c r="B74" s="51"/>
       <c r="C74" s="52"/>
       <c r="D74" s="53"/>
       <c r="E74" s="35"/>
@@ -3781,27 +3258,13 @@
         <f t="shared" ref="A75:A79" ca="1" si="11">IF(OFFSET(A75,-1,0) ="",OFFSET(A75,-2,0)+1,OFFSET(A75,-1,0)+1 )</f>
         <v>47</v>
       </c>
-      <c r="B75" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
       <c r="I75" s="37"/>
       <c r="J75" s="32"/>
       <c r="K75" s="32"/>
@@ -3826,27 +3289,13 @@
         <f t="shared" ca="1" si="11"/>
         <v>48</v>
       </c>
-      <c r="B76" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
       <c r="I76" s="37"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32"/>
@@ -3871,27 +3320,13 @@
         <f t="shared" ca="1" si="11"/>
         <v>49</v>
       </c>
-      <c r="B77" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
       <c r="I77" s="37"/>
       <c r="J77" s="32"/>
       <c r="K77" s="32"/>
@@ -3916,27 +3351,13 @@
         <f t="shared" ca="1" si="11"/>
         <v>50</v>
       </c>
-      <c r="B78" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
       <c r="I78" s="37"/>
       <c r="J78" s="32"/>
       <c r="K78" s="32"/>
@@ -3961,27 +3382,13 @@
         <f t="shared" ca="1" si="11"/>
         <v>51</v>
       </c>
-      <c r="B79" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
       <c r="I79" s="37"/>
       <c r="J79" s="32"/>
       <c r="K79" s="32"/>
@@ -29651,27 +29058,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B51:D51"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F80:H137">
